--- a/PR Team Daily Work Sheet 21th Mar.- 25th March 2022/PSC Trading - Offsite SEO - v2 - onsite offsite report/PSC Trading - Offsite SEO - v2 - onsite offsite report  7th Mar.- 11th March 2022.xlsx
+++ b/PR Team Daily Work Sheet 21th Mar.- 25th March 2022/PSC Trading - Offsite SEO - v2 - onsite offsite report/PSC Trading - Offsite SEO - v2 - onsite offsite report  7th Mar.- 11th March 2022.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Dropbox\Akram PR Team\PSC Trading\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\seo\PR Team Daily Work Sheet 21th Mar.- 25th March 2022\PSC Trading - Offsite SEO - v2 - onsite offsite report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8544B1F-7302-4503-A331-5EA464905FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15480" windowHeight="7755" tabRatio="815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
     <sheet name="Client Information" sheetId="34" r:id="rId2"/>
-    <sheet name="Profile Creation" sheetId="31" r:id="rId3"/>
-    <sheet name="Map Citation" sheetId="26" r:id="rId4"/>
+    <sheet name="Map Citation" sheetId="26" r:id="rId3"/>
+    <sheet name="Profile Creation" sheetId="31" r:id="rId4"/>
     <sheet name="Business Listing" sheetId="29" r:id="rId5"/>
     <sheet name="Blog  Submission" sheetId="6" r:id="rId6"/>
     <sheet name="Social Bookmarking" sheetId="9" r:id="rId7"/>
@@ -27,7 +26,7 @@
     <sheet name="Social Link " sheetId="32" r:id="rId12"/>
     <sheet name="Status" sheetId="21" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="307">
   <si>
     <t>CLICK BELOW</t>
   </si>
@@ -943,17 +942,38 @@
   <si>
     <t>https://southaustralia.localitylist.com.au/</t>
   </si>
+  <si>
+    <t>7kK3DAea3FubrHx</t>
+  </si>
+  <si>
+    <t>http://www.brownbook.net/</t>
+  </si>
+  <si>
+    <t>https://www.brownbook.net/business/50496508/psc-trading-australian-wholesale-suppliers</t>
+  </si>
+  <si>
+    <t>Wholesale Aprons, Wholesale Butcher Aprons, Wholesale hospitality Aprons</t>
+  </si>
+  <si>
+    <t>pscTrading</t>
+  </si>
+  <si>
+    <t> http://www.hotfrog.com.au/</t>
+  </si>
+  <si>
+    <t>https://www.hotfrog.com.au/company/ac1c173c3d8c956ec46b9cbd6d285589/psc-trading-australian-wholesale-suppliers/melbourne/security-and-safety-products</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[h]:mm"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1108,8 +1128,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1198,6 +1230,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1542,7 +1580,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1794,6 +1832,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1888,16 +1944,16 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="6" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="17" fontId="6" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="6" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1928,23 +1984,9 @@
     <xf numFmtId="0" fontId="16" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2051,7 +2093,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2137,7 +2179,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2223,7 +2265,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2309,7 +2351,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2383,7 +2425,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2395,7 +2437,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2469,7 +2511,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2481,7 +2523,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2567,7 +2609,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2653,7 +2695,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2739,7 +2781,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2825,7 +2867,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2915,7 +2957,7 @@
         <xdr:cNvPr id="18635" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000CB480000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000CB480000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2967,7 +3009,7 @@
         <xdr:cNvPr id="29" name="Shape 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3052,7 +3094,7 @@
         <xdr:cNvPr id="19862" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000964D0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000964D0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3286,7 +3328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z984"/>
   <sheetViews>
@@ -3532,15 +3574,15 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="131" t="s">
+      <c r="G9" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="132"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="132"/>
-      <c r="L9" s="132"/>
-      <c r="M9" s="133"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="140"/>
+      <c r="K9" s="140"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="141"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -3562,13 +3604,13 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="135"/>
-      <c r="L10" s="135"/>
-      <c r="M10" s="136"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="143"/>
+      <c r="K10" s="143"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="144"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -3646,17 +3688,17 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="137" t="s">
+      <c r="G13" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="137" t="s">
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="123"/>
-      <c r="M13" s="138"/>
+      <c r="L13" s="131"/>
+      <c r="M13" s="146"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -3678,17 +3720,17 @@
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="139" t="s">
+      <c r="G14" s="147" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="141"/>
-      <c r="K14" s="142" t="s">
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="149"/>
+      <c r="K14" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="143"/>
-      <c r="M14" s="144"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="152"/>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
@@ -3710,17 +3752,17 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="125" t="s">
+      <c r="G15" s="133" t="s">
         <v>99</v>
       </c>
-      <c r="H15" s="126"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="128" t="s">
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="129"/>
-      <c r="M15" s="130"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="138"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -3742,17 +3784,17 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="115" t="s">
+      <c r="G16" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="118" t="s">
+      <c r="H16" s="124"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="119"/>
-      <c r="M16" s="120"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="128"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -3774,17 +3816,17 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="122" t="s">
+      <c r="G17" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="124" t="s">
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="L17" s="124"/>
-      <c r="M17" s="124"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="132"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -3806,17 +3848,17 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="109" t="s">
+      <c r="G18" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="121" t="s">
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="L18" s="121"/>
-      <c r="M18" s="121"/>
+      <c r="L18" s="129"/>
+      <c r="M18" s="129"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -3838,17 +3880,17 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="109" t="s">
+      <c r="G19" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="112" t="s">
+      <c r="H19" s="118"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="112"/>
-      <c r="M19" s="112"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="120"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -3870,17 +3912,17 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="109" t="s">
+      <c r="G20" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="111"/>
-      <c r="K20" s="112" t="s">
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="L20" s="112"/>
-      <c r="M20" s="112"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="120"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -3902,17 +3944,17 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="109" t="s">
+      <c r="G21" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="113" t="s">
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="L21" s="114"/>
-      <c r="M21" s="114"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="122"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -3934,17 +3976,17 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="109" t="s">
+      <c r="G22" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="113" t="s">
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="L22" s="114"/>
-      <c r="M22" s="114"/>
+      <c r="L22" s="122"/>
+      <c r="M22" s="122"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -3966,17 +4008,17 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="109" t="s">
+      <c r="G23" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="113" t="s">
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="L23" s="114"/>
-      <c r="M23" s="114"/>
+      <c r="L23" s="122"/>
+      <c r="M23" s="122"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -10082,16 +10124,16 @@
     <mergeCell ref="K21:M21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K15:M15" location="'Blog  Submission'!A1" display="Click HERE" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K16:M16" location="'Social Bookmarking'!A1" display="Click HERE" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K21:M21" location="'Profile Creation'!A1" display="Click HERE" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="K17:M17" location="'Image Submissions'!A1" display="Click HERE" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="K19:M19" location="'Web 2.0'!A1" display="Click HERE" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="K20:M20" location="Microblogging!A1" display="Click HERE" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="K23:M23" location="Status!A1" display="Click HERE" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="K22:M22" location="'Social Link '!A1" display="Click HERE" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="K18:M18" location="'Map Citation'!A1" display="Click HERE" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="K14:M14" location="'Client Information'!A1" display="Click HERE" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K15:M15" location="'Blog  Submission'!A1" display="Click HERE"/>
+    <hyperlink ref="K16:M16" location="'Social Bookmarking'!A1" display="Click HERE"/>
+    <hyperlink ref="K21:M21" location="'Profile Creation'!A1" display="Click HERE"/>
+    <hyperlink ref="K17:M17" location="'Image Submissions'!A1" display="Click HERE"/>
+    <hyperlink ref="K19:M19" location="'Web 2.0'!A1" display="Click HERE"/>
+    <hyperlink ref="K20:M20" location="Microblogging!A1" display="Click HERE"/>
+    <hyperlink ref="K23:M23" location="Status!A1" display="Click HERE"/>
+    <hyperlink ref="K22:M22" location="'Social Link '!A1" display="Click HERE"/>
+    <hyperlink ref="K18:M18" location="'Map Citation'!A1" display="Click HERE"/>
+    <hyperlink ref="K14:M14" location="'Client Information'!A1" display="Click HERE"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -10099,7 +10141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
@@ -10288,11 +10330,11 @@
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="158" t="s">
+      <c r="C7" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="123"/>
-      <c r="E7" s="138"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="146"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -10318,9 +10360,9 @@
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="127"/>
+      <c r="C8" s="167"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="135"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -10402,11 +10444,11 @@
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="157">
+      <c r="C11" s="165">
         <v>43580</v>
       </c>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -17087,7 +17129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:AA992"/>
   <sheetViews>
@@ -17287,16 +17329,16 @@
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="145"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="153"/>
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
@@ -17318,14 +17360,14 @@
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
-      <c r="C8" s="152"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="145"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="153"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
@@ -17405,14 +17447,14 @@
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
+      <c r="C11" s="161"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="162"/>
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
@@ -19002,7 +19044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:AA989"/>
   <sheetViews>
@@ -19202,16 +19244,16 @@
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="145"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="153"/>
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
@@ -19233,14 +19275,14 @@
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
-      <c r="C8" s="152"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="145"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="153"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
@@ -19320,14 +19362,14 @@
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
+      <c r="C11" s="161"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="162"/>
       <c r="K11" s="41"/>
       <c r="L11" s="41"/>
       <c r="M11" s="41"/>
@@ -20961,7 +21003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:Y998"/>
   <sheetViews>
@@ -21152,10 +21194,10 @@
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
-      <c r="E7" s="160" t="s">
+      <c r="E7" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="145"/>
+      <c r="F7" s="153"/>
       <c r="G7" s="70"/>
       <c r="H7" s="70"/>
       <c r="I7" s="70"/>
@@ -21181,8 +21223,8 @@
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="162"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="170"/>
       <c r="G8" s="71"/>
       <c r="H8" s="71"/>
       <c r="I8" s="71"/>
@@ -21451,7 +21493,7 @@
       <c r="B16" s="18"/>
       <c r="C16" s="1"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="163">
+      <c r="E16" s="171">
         <v>1</v>
       </c>
       <c r="F16" s="50" t="s">
@@ -21486,7 +21528,7 @@
       <c r="B17" s="18"/>
       <c r="C17" s="1"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="164"/>
+      <c r="E17" s="172"/>
       <c r="F17" s="50" t="s">
         <v>111</v>
       </c>
@@ -21521,10 +21563,10 @@
       <c r="B18" s="18"/>
       <c r="C18" s="1"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="165" t="s">
+      <c r="E18" s="173" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="166"/>
+      <c r="F18" s="174"/>
       <c r="G18" s="69">
         <f>SUM(G16+G17)</f>
         <v>0.20833333333333331</v>
@@ -27588,12 +27630,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27768,10 +27810,10 @@
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="25"/>
-      <c r="D7" s="145" t="s">
+      <c r="D7" s="153" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="145"/>
+      <c r="E7" s="153"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
       <c r="H7" s="21"/>
@@ -27796,8 +27838,8 @@
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="25"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="153"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
       <c r="H8" s="21"/>
@@ -27874,10 +27916,10 @@
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
-      <c r="D11" s="146" t="s">
+      <c r="D11" s="154" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="147"/>
+      <c r="E11" s="155"/>
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
@@ -27902,7 +27944,7 @@
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="148" t="s">
+      <c r="D12" s="156" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="42" t="s">
@@ -27932,7 +27974,7 @@
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
-      <c r="D13" s="149"/>
+      <c r="D13" s="157"/>
       <c r="E13" s="74" t="s">
         <v>92</v>
       </c>
@@ -28226,10 +28268,10 @@
       <c r="A23" s="41"/>
       <c r="B23" s="41"/>
       <c r="C23" s="41"/>
-      <c r="D23" s="151" t="s">
+      <c r="D23" s="159" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="151"/>
+      <c r="E23" s="159"/>
       <c r="F23" s="41"/>
       <c r="G23" s="41"/>
       <c r="H23" s="41"/>
@@ -28384,7 +28426,7 @@
       <c r="A29" s="41"/>
       <c r="B29" s="41"/>
       <c r="C29" s="41"/>
-      <c r="D29" s="148" t="s">
+      <c r="D29" s="156" t="s">
         <v>60</v>
       </c>
       <c r="E29" s="72" t="s">
@@ -28410,7 +28452,7 @@
       <c r="A30" s="41"/>
       <c r="B30" s="41"/>
       <c r="C30" s="41"/>
-      <c r="D30" s="149"/>
+      <c r="D30" s="157"/>
       <c r="E30" s="75" t="s">
         <v>94</v>
       </c>
@@ -28508,10 +28550,10 @@
       <c r="A34" s="41"/>
       <c r="B34" s="41"/>
       <c r="C34" s="41"/>
-      <c r="D34" s="150" t="s">
+      <c r="D34" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="150"/>
+      <c r="E34" s="158"/>
       <c r="F34" s="41"/>
       <c r="G34" s="41"/>
       <c r="H34" s="41"/>
@@ -28714,8 +28756,8 @@
       <c r="A42" s="41"/>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
+      <c r="D42" s="158"/>
+      <c r="E42" s="158"/>
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
       <c r="H42" s="41"/>
@@ -31245,12 +31287,3027 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A1:AB987"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" style="24" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="37" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="37" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="24" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="29.5703125" style="24" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="37.7109375" style="24" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" style="24" customWidth="1"/>
+    <col min="13" max="28" width="8" style="24" customWidth="1"/>
+    <col min="29" max="16384" width="14.42578125" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="41"/>
+    </row>
+    <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="160" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="153"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+    </row>
+    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="153"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="41"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="161"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="162"/>
+      <c r="K11" s="162"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="41"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="41"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="100" t="s">
+        <v>230</v>
+      </c>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="41"/>
+    </row>
+    <row r="15" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="89">
+        <v>1</v>
+      </c>
+      <c r="D15" s="76">
+        <v>44546</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="103" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" s="82"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="41"/>
+      <c r="AB15" s="41"/>
+    </row>
+    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="89">
+        <v>2</v>
+      </c>
+      <c r="D16" s="76">
+        <v>44546</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" s="82"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41"/>
+    </row>
+    <row r="17" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="89">
+        <v>3</v>
+      </c>
+      <c r="D17" s="76">
+        <v>44546</v>
+      </c>
+      <c r="E17" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" s="104" t="s">
+        <v>104</v>
+      </c>
+      <c r="L17" s="82"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="41"/>
+    </row>
+    <row r="18" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="89">
+        <v>4</v>
+      </c>
+      <c r="D18" s="76">
+        <v>44546</v>
+      </c>
+      <c r="E18" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="L18" s="82"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+    </row>
+    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="89">
+        <v>5</v>
+      </c>
+      <c r="D19" s="88">
+        <v>44552</v>
+      </c>
+      <c r="E19" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="L19" s="82"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="41"/>
+      <c r="AB19" s="41"/>
+    </row>
+    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="89">
+        <v>6</v>
+      </c>
+      <c r="D20" s="88">
+        <v>44552</v>
+      </c>
+      <c r="E20" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="103" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="82"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+    </row>
+    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="89">
+        <v>7</v>
+      </c>
+      <c r="D21" s="88">
+        <v>44552</v>
+      </c>
+      <c r="E21" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="103" t="s">
+        <v>138</v>
+      </c>
+      <c r="L21" s="82"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+    </row>
+    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="89">
+        <v>8</v>
+      </c>
+      <c r="D22" s="88">
+        <v>44552</v>
+      </c>
+      <c r="E22" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="K22" s="103" t="s">
+        <v>141</v>
+      </c>
+      <c r="L22" s="82"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+    </row>
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="89">
+        <v>9</v>
+      </c>
+      <c r="D23" s="88">
+        <v>44559</v>
+      </c>
+      <c r="E23" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="103" t="s">
+        <v>155</v>
+      </c>
+      <c r="L23" s="82"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+    </row>
+    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="89">
+        <v>10</v>
+      </c>
+      <c r="D24" s="88">
+        <v>44559</v>
+      </c>
+      <c r="E24" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="103" t="s">
+        <v>157</v>
+      </c>
+      <c r="L24" s="82"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+    </row>
+    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="89">
+        <v>11</v>
+      </c>
+      <c r="D25" s="88">
+        <v>44559</v>
+      </c>
+      <c r="E25" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="103" t="s">
+        <v>159</v>
+      </c>
+      <c r="L25" s="82"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+    </row>
+    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="89">
+        <v>12</v>
+      </c>
+      <c r="D26" s="88">
+        <v>44559</v>
+      </c>
+      <c r="E26" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="I26" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="103" t="s">
+        <v>161</v>
+      </c>
+      <c r="L26" s="82"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+    </row>
+    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="89">
+        <v>13</v>
+      </c>
+      <c r="D27" s="88">
+        <v>44568</v>
+      </c>
+      <c r="E27" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="F27" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="I27" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" s="103" t="s">
+        <v>170</v>
+      </c>
+      <c r="L27" s="82"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+    </row>
+    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="89">
+        <v>14</v>
+      </c>
+      <c r="D28" s="88">
+        <v>44568</v>
+      </c>
+      <c r="E28" s="82" t="s">
+        <v>173</v>
+      </c>
+      <c r="F28" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" s="103" t="s">
+        <v>172</v>
+      </c>
+      <c r="L28" s="82"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="41"/>
+    </row>
+    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="89">
+        <v>15</v>
+      </c>
+      <c r="D29" s="88">
+        <v>44568</v>
+      </c>
+      <c r="E29" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="F29" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="I29" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" s="103" t="s">
+        <v>174</v>
+      </c>
+      <c r="L29" s="82"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="41"/>
+    </row>
+    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="89">
+        <v>16</v>
+      </c>
+      <c r="D30" s="88">
+        <v>44568</v>
+      </c>
+      <c r="E30" s="82" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K30" s="103" t="s">
+        <v>138</v>
+      </c>
+      <c r="L30" s="82"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+    </row>
+    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="89">
+        <v>17</v>
+      </c>
+      <c r="D31" s="88">
+        <v>44573</v>
+      </c>
+      <c r="E31" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="F31" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31" s="103" t="s">
+        <v>178</v>
+      </c>
+      <c r="L31" s="82"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+    </row>
+    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="89">
+        <v>18</v>
+      </c>
+      <c r="D32" s="88">
+        <v>44573</v>
+      </c>
+      <c r="E32" s="82" t="s">
+        <v>179</v>
+      </c>
+      <c r="F32" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K32" s="103" t="s">
+        <v>180</v>
+      </c>
+      <c r="L32" s="82"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+    </row>
+    <row r="33" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="89">
+        <v>19</v>
+      </c>
+      <c r="D33" s="88">
+        <v>44573</v>
+      </c>
+      <c r="E33" s="82" t="s">
+        <v>181</v>
+      </c>
+      <c r="F33" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="I33" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" s="103" t="s">
+        <v>182</v>
+      </c>
+      <c r="L33" s="82"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="41"/>
+    </row>
+    <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="89">
+        <v>20</v>
+      </c>
+      <c r="D34" s="88">
+        <v>44573</v>
+      </c>
+      <c r="E34" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="F34" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="I34" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J34" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K34" s="103" t="s">
+        <v>184</v>
+      </c>
+      <c r="L34" s="82"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="41"/>
+    </row>
+    <row r="35" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="89">
+        <v>21</v>
+      </c>
+      <c r="D35" s="88">
+        <v>44573</v>
+      </c>
+      <c r="E35" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="F35" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J35" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35" s="103" t="s">
+        <v>178</v>
+      </c>
+      <c r="L35" s="82"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41"/>
+    </row>
+    <row r="36" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="89">
+        <v>22</v>
+      </c>
+      <c r="D36" s="88">
+        <v>44573</v>
+      </c>
+      <c r="E36" s="82" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="I36" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J36" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K36" s="103" t="s">
+        <v>180</v>
+      </c>
+      <c r="L36" s="82"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="41"/>
+    </row>
+    <row r="37" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="89">
+        <v>23</v>
+      </c>
+      <c r="D37" s="88">
+        <v>44573</v>
+      </c>
+      <c r="E37" s="82" t="s">
+        <v>181</v>
+      </c>
+      <c r="F37" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="I37" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J37" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K37" s="103" t="s">
+        <v>182</v>
+      </c>
+      <c r="L37" s="82"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="41"/>
+    </row>
+    <row r="38" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="89">
+        <v>24</v>
+      </c>
+      <c r="D38" s="88">
+        <v>44573</v>
+      </c>
+      <c r="E38" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="F38" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="I38" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J38" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K38" s="103" t="s">
+        <v>184</v>
+      </c>
+      <c r="L38" s="82"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="41"/>
+      <c r="S38" s="41"/>
+      <c r="T38" s="41"/>
+      <c r="U38" s="41"/>
+    </row>
+    <row r="39" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="89">
+        <v>25</v>
+      </c>
+      <c r="D39" s="88">
+        <v>44581</v>
+      </c>
+      <c r="E39" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="F39" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="I39" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K39" s="103" t="s">
+        <v>198</v>
+      </c>
+      <c r="L39" s="83"/>
+    </row>
+    <row r="40" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="89">
+        <v>26</v>
+      </c>
+      <c r="D40" s="88">
+        <v>44581</v>
+      </c>
+      <c r="E40" s="82" t="s">
+        <v>199</v>
+      </c>
+      <c r="F40" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="I40" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J40" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="K40" s="103" t="s">
+        <v>201</v>
+      </c>
+      <c r="L40" s="83"/>
+    </row>
+    <row r="41" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="89">
+        <v>27</v>
+      </c>
+      <c r="D41" s="88">
+        <v>44581</v>
+      </c>
+      <c r="E41" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="F41" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="I41" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J41" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K41" s="103" t="s">
+        <v>203</v>
+      </c>
+      <c r="L41" s="83"/>
+    </row>
+    <row r="42" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="89">
+        <v>28</v>
+      </c>
+      <c r="D42" s="88">
+        <v>44581</v>
+      </c>
+      <c r="E42" s="82" t="s">
+        <v>204</v>
+      </c>
+      <c r="F42" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="I42" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J42" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K42" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="L42" s="83"/>
+    </row>
+    <row r="43" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="89">
+        <v>29</v>
+      </c>
+      <c r="D43" s="88">
+        <v>44585</v>
+      </c>
+      <c r="E43" s="83" t="s">
+        <v>228</v>
+      </c>
+      <c r="F43" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G43" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="I43" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J43" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K43" s="83" t="s">
+        <v>227</v>
+      </c>
+      <c r="L43" s="83"/>
+    </row>
+    <row r="44" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="89">
+        <v>30</v>
+      </c>
+      <c r="D44" s="88">
+        <v>44586</v>
+      </c>
+      <c r="E44" s="83" t="s">
+        <v>232</v>
+      </c>
+      <c r="F44" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G44" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="I44" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J44" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K44" s="83" t="s">
+        <v>229</v>
+      </c>
+      <c r="L44" s="48" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="89">
+        <v>31</v>
+      </c>
+      <c r="D45" s="88">
+        <v>44587</v>
+      </c>
+      <c r="E45" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="F45" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="I45" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J45" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K45" s="83" t="s">
+        <v>235</v>
+      </c>
+      <c r="L45" s="83"/>
+    </row>
+    <row r="46" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="105">
+        <v>32</v>
+      </c>
+      <c r="D46" s="88">
+        <v>44592</v>
+      </c>
+      <c r="E46" s="82" t="s">
+        <v>238</v>
+      </c>
+      <c r="F46" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G46" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="I46" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J46" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K46" s="83" t="s">
+        <v>237</v>
+      </c>
+      <c r="L46" s="83"/>
+    </row>
+    <row r="47" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="105">
+        <v>33</v>
+      </c>
+      <c r="D47" s="88">
+        <v>44593</v>
+      </c>
+      <c r="E47" s="83" t="s">
+        <v>232</v>
+      </c>
+      <c r="F47" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G47" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="I47" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J47" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K47" s="83" t="s">
+        <v>249</v>
+      </c>
+      <c r="L47" s="48" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="105">
+        <v>34</v>
+      </c>
+      <c r="D48" s="88">
+        <v>44599</v>
+      </c>
+      <c r="E48" s="111" t="s">
+        <v>255</v>
+      </c>
+      <c r="F48" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G48" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H48" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="I48" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J48" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K48" s="83" t="s">
+        <v>254</v>
+      </c>
+      <c r="L48" s="83"/>
+    </row>
+    <row r="49" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="105">
+        <v>35</v>
+      </c>
+      <c r="D49" s="88">
+        <v>44600</v>
+      </c>
+      <c r="E49" s="83" t="s">
+        <v>258</v>
+      </c>
+      <c r="F49" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G49" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="I49" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J49" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K49" s="83" t="s">
+        <v>257</v>
+      </c>
+      <c r="L49" s="48" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="105">
+        <v>36</v>
+      </c>
+      <c r="D50" s="88">
+        <v>44601</v>
+      </c>
+      <c r="E50" s="83" t="s">
+        <v>260</v>
+      </c>
+      <c r="F50" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G50" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H50" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="I50" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J50" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K50" s="83" t="s">
+        <v>259</v>
+      </c>
+      <c r="L50" s="83"/>
+    </row>
+    <row r="51" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="105">
+        <v>37</v>
+      </c>
+      <c r="D51" s="88">
+        <v>44613</v>
+      </c>
+      <c r="E51" s="83" t="s">
+        <v>270</v>
+      </c>
+      <c r="F51" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G51" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" s="83"/>
+      <c r="I51" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J51" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K51" s="83" t="s">
+        <v>269</v>
+      </c>
+      <c r="L51" s="83"/>
+    </row>
+    <row r="52" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="105">
+        <v>38</v>
+      </c>
+      <c r="D52" s="88">
+        <v>44614</v>
+      </c>
+      <c r="E52" s="83" t="s">
+        <v>260</v>
+      </c>
+      <c r="F52" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="I52" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K52" s="83" t="s">
+        <v>259</v>
+      </c>
+      <c r="L52" s="83"/>
+    </row>
+    <row r="53" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="105">
+        <v>39</v>
+      </c>
+      <c r="D53" s="88">
+        <v>44620</v>
+      </c>
+      <c r="E53" s="83" t="s">
+        <v>283</v>
+      </c>
+      <c r="F53" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G53" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="I53" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J53" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K53" s="83" t="s">
+        <v>282</v>
+      </c>
+      <c r="L53" s="83"/>
+    </row>
+    <row r="54" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="105">
+        <v>40</v>
+      </c>
+      <c r="D54" s="88">
+        <v>44621</v>
+      </c>
+      <c r="E54" s="83" t="s">
+        <v>286</v>
+      </c>
+      <c r="F54" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G54" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="I54" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J54" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K54" s="83" t="s">
+        <v>285</v>
+      </c>
+      <c r="L54" s="83"/>
+    </row>
+    <row r="55" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="105">
+        <v>41</v>
+      </c>
+      <c r="D55" s="88">
+        <v>44627</v>
+      </c>
+      <c r="E55" s="83" t="s">
+        <v>288</v>
+      </c>
+      <c r="F55" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G55" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="I55" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J55" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K55" s="83" t="s">
+        <v>287</v>
+      </c>
+      <c r="L55" s="48" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="105">
+        <v>43</v>
+      </c>
+      <c r="D56" s="88">
+        <v>44643</v>
+      </c>
+      <c r="E56" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="F56" s="176" t="s">
+        <v>303</v>
+      </c>
+      <c r="G56" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H56" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="I56" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J56" s="175" t="s">
+        <v>300</v>
+      </c>
+      <c r="K56" s="83" t="s">
+        <v>302</v>
+      </c>
+      <c r="L56" s="83"/>
+    </row>
+    <row r="57" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="105">
+        <v>44</v>
+      </c>
+      <c r="D57" s="88">
+        <v>44643</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="F57" s="176" t="s">
+        <v>303</v>
+      </c>
+      <c r="G57" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="I57" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J57" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K57" s="83" t="s">
+        <v>306</v>
+      </c>
+      <c r="L57" s="83"/>
+    </row>
+    <row r="59" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C7:K8"/>
+    <mergeCell ref="C11:K11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:U982"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -31409,16 +34466,16 @@
       <c r="U6" s="21"/>
     </row>
     <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="152" t="s">
+      <c r="A7" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="145"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
@@ -31434,14 +34491,14 @@
       <c r="U7" s="21"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="152"/>
-      <c r="B8" s="145"/>
-      <c r="C8" s="145"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
+      <c r="A8" s="160"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
@@ -31503,14 +34560,14 @@
       <c r="U10" s="41"/>
     </row>
     <row r="11" spans="1:21" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="153"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="154"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
+      <c r="A11" s="163"/>
+      <c r="B11" s="164"/>
+      <c r="C11" s="164"/>
+      <c r="D11" s="164"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="164"/>
       <c r="I11" s="85"/>
       <c r="J11" s="85"/>
       <c r="K11" s="85"/>
@@ -33317,2963 +36374,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:AB984"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.42578125" style="24" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="37" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="37" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="24" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="24" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="24" customWidth="1"/>
-    <col min="9" max="9" width="29.5703125" style="24" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="37.7109375" style="24" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" style="24" customWidth="1"/>
-    <col min="13" max="28" width="8" style="24" customWidth="1"/>
-    <col min="29" max="16384" width="14.42578125" style="24"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-    </row>
-    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="41"/>
-    </row>
-    <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="152" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-    </row>
-    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="152"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="145"/>
-      <c r="K8" s="145"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="41"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="156"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="41"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="100" t="s">
-        <v>230</v>
-      </c>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="41"/>
-    </row>
-    <row r="15" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="89">
-        <v>1</v>
-      </c>
-      <c r="D15" s="76">
-        <v>44546</v>
-      </c>
-      <c r="E15" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="81" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="81" t="s">
-        <v>97</v>
-      </c>
-      <c r="J15" s="81" t="s">
-        <v>97</v>
-      </c>
-      <c r="K15" s="103" t="s">
-        <v>95</v>
-      </c>
-      <c r="L15" s="82"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="41"/>
-    </row>
-    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="89">
-        <v>2</v>
-      </c>
-      <c r="D16" s="76">
-        <v>44546</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="82" t="s">
-        <v>97</v>
-      </c>
-      <c r="I16" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" s="103" t="s">
-        <v>100</v>
-      </c>
-      <c r="L16" s="82"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="41"/>
-    </row>
-    <row r="17" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="89">
-        <v>3</v>
-      </c>
-      <c r="D17" s="76">
-        <v>44546</v>
-      </c>
-      <c r="E17" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="I17" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="K17" s="104" t="s">
-        <v>104</v>
-      </c>
-      <c r="L17" s="82"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="41"/>
-      <c r="AB17" s="41"/>
-    </row>
-    <row r="18" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="89">
-        <v>4</v>
-      </c>
-      <c r="D18" s="76">
-        <v>44546</v>
-      </c>
-      <c r="E18" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="I18" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" s="103" t="s">
-        <v>105</v>
-      </c>
-      <c r="L18" s="82"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="41"/>
-    </row>
-    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="89">
-        <v>5</v>
-      </c>
-      <c r="D19" s="88">
-        <v>44552</v>
-      </c>
-      <c r="E19" s="82" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="I19" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19" s="103" t="s">
-        <v>134</v>
-      </c>
-      <c r="L19" s="82"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="41"/>
-      <c r="AB19" s="41"/>
-    </row>
-    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="89">
-        <v>6</v>
-      </c>
-      <c r="D20" s="88">
-        <v>44552</v>
-      </c>
-      <c r="E20" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="F20" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="I20" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" s="103" t="s">
-        <v>136</v>
-      </c>
-      <c r="L20" s="82"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-    </row>
-    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="89">
-        <v>7</v>
-      </c>
-      <c r="D21" s="88">
-        <v>44552</v>
-      </c>
-      <c r="E21" s="82" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="I21" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J21" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21" s="103" t="s">
-        <v>138</v>
-      </c>
-      <c r="L21" s="82"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-    </row>
-    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="89">
-        <v>8</v>
-      </c>
-      <c r="D22" s="88">
-        <v>44552</v>
-      </c>
-      <c r="E22" s="82" t="s">
-        <v>142</v>
-      </c>
-      <c r="F22" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J22" s="82" t="s">
-        <v>140</v>
-      </c>
-      <c r="K22" s="103" t="s">
-        <v>141</v>
-      </c>
-      <c r="L22" s="82"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-    </row>
-    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="89">
-        <v>9</v>
-      </c>
-      <c r="D23" s="88">
-        <v>44559</v>
-      </c>
-      <c r="E23" s="82" t="s">
-        <v>156</v>
-      </c>
-      <c r="F23" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="I23" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K23" s="103" t="s">
-        <v>155</v>
-      </c>
-      <c r="L23" s="82"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-    </row>
-    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="89">
-        <v>10</v>
-      </c>
-      <c r="D24" s="88">
-        <v>44559</v>
-      </c>
-      <c r="E24" s="82" t="s">
-        <v>158</v>
-      </c>
-      <c r="F24" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="I24" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K24" s="103" t="s">
-        <v>157</v>
-      </c>
-      <c r="L24" s="82"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-    </row>
-    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="89">
-        <v>11</v>
-      </c>
-      <c r="D25" s="88">
-        <v>44559</v>
-      </c>
-      <c r="E25" s="82" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="I25" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J25" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K25" s="103" t="s">
-        <v>159</v>
-      </c>
-      <c r="L25" s="82"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-    </row>
-    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="89">
-        <v>12</v>
-      </c>
-      <c r="D26" s="88">
-        <v>44559</v>
-      </c>
-      <c r="E26" s="82" t="s">
-        <v>162</v>
-      </c>
-      <c r="F26" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="I26" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J26" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K26" s="103" t="s">
-        <v>161</v>
-      </c>
-      <c r="L26" s="82"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-    </row>
-    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="89">
-        <v>13</v>
-      </c>
-      <c r="D27" s="88">
-        <v>44568</v>
-      </c>
-      <c r="E27" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="F27" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="I27" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J27" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K27" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="L27" s="82"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-    </row>
-    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="89">
-        <v>14</v>
-      </c>
-      <c r="D28" s="88">
-        <v>44568</v>
-      </c>
-      <c r="E28" s="82" t="s">
-        <v>173</v>
-      </c>
-      <c r="F28" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="I28" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J28" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K28" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="L28" s="82"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
-    </row>
-    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="89">
-        <v>15</v>
-      </c>
-      <c r="D29" s="88">
-        <v>44568</v>
-      </c>
-      <c r="E29" s="82" t="s">
-        <v>175</v>
-      </c>
-      <c r="F29" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="I29" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J29" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K29" s="103" t="s">
-        <v>174</v>
-      </c>
-      <c r="L29" s="82"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="41"/>
-      <c r="V29" s="41"/>
-    </row>
-    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="89">
-        <v>16</v>
-      </c>
-      <c r="D30" s="88">
-        <v>44568</v>
-      </c>
-      <c r="E30" s="82" t="s">
-        <v>176</v>
-      </c>
-      <c r="F30" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="I30" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J30" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K30" s="103" t="s">
-        <v>138</v>
-      </c>
-      <c r="L30" s="82"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="41"/>
-      <c r="U30" s="41"/>
-    </row>
-    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="89">
-        <v>17</v>
-      </c>
-      <c r="D31" s="88">
-        <v>44573</v>
-      </c>
-      <c r="E31" s="82" t="s">
-        <v>177</v>
-      </c>
-      <c r="F31" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="I31" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J31" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K31" s="103" t="s">
-        <v>178</v>
-      </c>
-      <c r="L31" s="82"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
-    </row>
-    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="89">
-        <v>18</v>
-      </c>
-      <c r="D32" s="88">
-        <v>44573</v>
-      </c>
-      <c r="E32" s="82" t="s">
-        <v>179</v>
-      </c>
-      <c r="F32" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G32" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="I32" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J32" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K32" s="103" t="s">
-        <v>180</v>
-      </c>
-      <c r="L32" s="82"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="41"/>
-    </row>
-    <row r="33" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="89">
-        <v>19</v>
-      </c>
-      <c r="D33" s="88">
-        <v>44573</v>
-      </c>
-      <c r="E33" s="82" t="s">
-        <v>181</v>
-      </c>
-      <c r="F33" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="I33" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J33" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K33" s="103" t="s">
-        <v>182</v>
-      </c>
-      <c r="L33" s="82"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
-    </row>
-    <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="89">
-        <v>20</v>
-      </c>
-      <c r="D34" s="88">
-        <v>44573</v>
-      </c>
-      <c r="E34" s="82" t="s">
-        <v>183</v>
-      </c>
-      <c r="F34" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G34" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="I34" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J34" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K34" s="103" t="s">
-        <v>184</v>
-      </c>
-      <c r="L34" s="82"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="41"/>
-    </row>
-    <row r="35" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="89">
-        <v>21</v>
-      </c>
-      <c r="D35" s="88">
-        <v>44573</v>
-      </c>
-      <c r="E35" s="82" t="s">
-        <v>177</v>
-      </c>
-      <c r="F35" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G35" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H35" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="I35" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J35" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K35" s="103" t="s">
-        <v>178</v>
-      </c>
-      <c r="L35" s="82"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
-    </row>
-    <row r="36" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="89">
-        <v>22</v>
-      </c>
-      <c r="D36" s="88">
-        <v>44573</v>
-      </c>
-      <c r="E36" s="82" t="s">
-        <v>179</v>
-      </c>
-      <c r="F36" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G36" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="I36" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J36" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K36" s="103" t="s">
-        <v>180</v>
-      </c>
-      <c r="L36" s="82"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="41"/>
-    </row>
-    <row r="37" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="89">
-        <v>23</v>
-      </c>
-      <c r="D37" s="88">
-        <v>44573</v>
-      </c>
-      <c r="E37" s="82" t="s">
-        <v>181</v>
-      </c>
-      <c r="F37" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G37" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H37" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="I37" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J37" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K37" s="103" t="s">
-        <v>182</v>
-      </c>
-      <c r="L37" s="82"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="41"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="41"/>
-    </row>
-    <row r="38" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="89">
-        <v>24</v>
-      </c>
-      <c r="D38" s="88">
-        <v>44573</v>
-      </c>
-      <c r="E38" s="82" t="s">
-        <v>183</v>
-      </c>
-      <c r="F38" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G38" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H38" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="I38" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J38" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K38" s="103" t="s">
-        <v>184</v>
-      </c>
-      <c r="L38" s="82"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="41"/>
-      <c r="T38" s="41"/>
-      <c r="U38" s="41"/>
-    </row>
-    <row r="39" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="89">
-        <v>25</v>
-      </c>
-      <c r="D39" s="88">
-        <v>44581</v>
-      </c>
-      <c r="E39" s="82" t="s">
-        <v>197</v>
-      </c>
-      <c r="F39" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G39" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H39" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="I39" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J39" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K39" s="103" t="s">
-        <v>198</v>
-      </c>
-      <c r="L39" s="83"/>
-    </row>
-    <row r="40" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="89">
-        <v>26</v>
-      </c>
-      <c r="D40" s="88">
-        <v>44581</v>
-      </c>
-      <c r="E40" s="82" t="s">
-        <v>199</v>
-      </c>
-      <c r="F40" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G40" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H40" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="I40" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J40" s="82" t="s">
-        <v>200</v>
-      </c>
-      <c r="K40" s="103" t="s">
-        <v>201</v>
-      </c>
-      <c r="L40" s="83"/>
-    </row>
-    <row r="41" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="89">
-        <v>27</v>
-      </c>
-      <c r="D41" s="88">
-        <v>44581</v>
-      </c>
-      <c r="E41" s="82" t="s">
-        <v>202</v>
-      </c>
-      <c r="F41" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G41" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H41" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="I41" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J41" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K41" s="103" t="s">
-        <v>203</v>
-      </c>
-      <c r="L41" s="83"/>
-    </row>
-    <row r="42" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="89">
-        <v>28</v>
-      </c>
-      <c r="D42" s="88">
-        <v>44581</v>
-      </c>
-      <c r="E42" s="82" t="s">
-        <v>204</v>
-      </c>
-      <c r="F42" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G42" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H42" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="I42" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J42" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K42" s="82" t="s">
-        <v>205</v>
-      </c>
-      <c r="L42" s="83"/>
-    </row>
-    <row r="43" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="89">
-        <v>29</v>
-      </c>
-      <c r="D43" s="88">
-        <v>44585</v>
-      </c>
-      <c r="E43" s="83" t="s">
-        <v>228</v>
-      </c>
-      <c r="F43" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G43" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H43" s="82" t="s">
-        <v>126</v>
-      </c>
-      <c r="I43" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J43" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K43" s="83" t="s">
-        <v>227</v>
-      </c>
-      <c r="L43" s="83"/>
-    </row>
-    <row r="44" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="89">
-        <v>30</v>
-      </c>
-      <c r="D44" s="88">
-        <v>44586</v>
-      </c>
-      <c r="E44" s="83" t="s">
-        <v>232</v>
-      </c>
-      <c r="F44" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G44" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H44" s="82" t="s">
-        <v>126</v>
-      </c>
-      <c r="I44" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J44" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K44" s="83" t="s">
-        <v>229</v>
-      </c>
-      <c r="L44" s="48" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="89">
-        <v>31</v>
-      </c>
-      <c r="D45" s="88">
-        <v>44587</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="F45" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G45" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H45" s="82" t="s">
-        <v>126</v>
-      </c>
-      <c r="I45" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J45" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K45" s="83" t="s">
-        <v>235</v>
-      </c>
-      <c r="L45" s="83"/>
-    </row>
-    <row r="46" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="105">
-        <v>32</v>
-      </c>
-      <c r="D46" s="88">
-        <v>44592</v>
-      </c>
-      <c r="E46" s="82" t="s">
-        <v>238</v>
-      </c>
-      <c r="F46" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G46" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H46" s="168" t="s">
-        <v>97</v>
-      </c>
-      <c r="I46" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J46" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K46" s="83" t="s">
-        <v>237</v>
-      </c>
-      <c r="L46" s="83"/>
-    </row>
-    <row r="47" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="105">
-        <v>33</v>
-      </c>
-      <c r="D47" s="88">
-        <v>44593</v>
-      </c>
-      <c r="E47" s="83" t="s">
-        <v>232</v>
-      </c>
-      <c r="F47" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G47" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H47" s="82" t="s">
-        <v>126</v>
-      </c>
-      <c r="I47" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J47" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K47" s="83" t="s">
-        <v>249</v>
-      </c>
-      <c r="L47" s="48" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="105">
-        <v>34</v>
-      </c>
-      <c r="D48" s="88">
-        <v>44599</v>
-      </c>
-      <c r="E48" s="169" t="s">
-        <v>255</v>
-      </c>
-      <c r="F48" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G48" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H48" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="I48" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J48" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K48" s="83" t="s">
-        <v>254</v>
-      </c>
-      <c r="L48" s="83"/>
-    </row>
-    <row r="49" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="105">
-        <v>35</v>
-      </c>
-      <c r="D49" s="88">
-        <v>44600</v>
-      </c>
-      <c r="E49" s="83" t="s">
-        <v>258</v>
-      </c>
-      <c r="F49" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G49" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H49" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="I49" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J49" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K49" s="83" t="s">
-        <v>257</v>
-      </c>
-      <c r="L49" s="48" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="105">
-        <v>36</v>
-      </c>
-      <c r="D50" s="88">
-        <v>44601</v>
-      </c>
-      <c r="E50" s="83" t="s">
-        <v>260</v>
-      </c>
-      <c r="F50" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G50" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H50" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="I50" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J50" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K50" s="83" t="s">
-        <v>259</v>
-      </c>
-      <c r="L50" s="83"/>
-    </row>
-    <row r="51" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="105">
-        <v>37</v>
-      </c>
-      <c r="D51" s="88">
-        <v>44613</v>
-      </c>
-      <c r="E51" s="83" t="s">
-        <v>270</v>
-      </c>
-      <c r="F51" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G51" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H51" s="83"/>
-      <c r="I51" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J51" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K51" s="83" t="s">
-        <v>269</v>
-      </c>
-      <c r="L51" s="83"/>
-    </row>
-    <row r="52" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="105">
-        <v>38</v>
-      </c>
-      <c r="D52" s="88">
-        <v>44614</v>
-      </c>
-      <c r="E52" s="83" t="s">
-        <v>260</v>
-      </c>
-      <c r="F52" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G52" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H52" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="I52" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J52" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K52" s="83" t="s">
-        <v>259</v>
-      </c>
-      <c r="L52" s="83"/>
-    </row>
-    <row r="53" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="105">
-        <v>39</v>
-      </c>
-      <c r="D53" s="88">
-        <v>44620</v>
-      </c>
-      <c r="E53" s="83" t="s">
-        <v>283</v>
-      </c>
-      <c r="F53" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G53" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H53" s="77" t="s">
-        <v>126</v>
-      </c>
-      <c r="I53" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J53" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K53" s="83" t="s">
-        <v>282</v>
-      </c>
-      <c r="L53" s="83"/>
-    </row>
-    <row r="54" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="105">
-        <v>40</v>
-      </c>
-      <c r="D54" s="88">
-        <v>44621</v>
-      </c>
-      <c r="E54" s="83" t="s">
-        <v>286</v>
-      </c>
-      <c r="F54" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G54" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H54" s="77" t="s">
-        <v>126</v>
-      </c>
-      <c r="I54" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J54" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K54" s="83" t="s">
-        <v>285</v>
-      </c>
-      <c r="L54" s="83"/>
-    </row>
-    <row r="55" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="105">
-        <v>41</v>
-      </c>
-      <c r="D55" s="88">
-        <v>44627</v>
-      </c>
-      <c r="E55" s="83" t="s">
-        <v>288</v>
-      </c>
-      <c r="F55" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G55" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H55" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="I55" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="J55" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K55" s="83" t="s">
-        <v>287</v>
-      </c>
-      <c r="L55" s="48" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="56" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C7:K8"/>
-    <mergeCell ref="C11:K11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:AB990"/>
   <sheetViews>
@@ -36481,17 +36583,17 @@
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="160" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="153"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
@@ -36513,15 +36615,15 @@
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
-      <c r="C8" s="152"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="145"/>
-      <c r="K8" s="145"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="153"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
@@ -36603,15 +36705,15 @@
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="156"/>
+      <c r="C11" s="161"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="162"/>
+      <c r="K11" s="162"/>
       <c r="L11" s="41"/>
       <c r="M11" s="41"/>
       <c r="N11" s="41"/>
@@ -36874,7 +36976,7 @@
       <c r="G17" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="168" t="s">
+      <c r="H17" s="110" t="s">
         <v>97</v>
       </c>
       <c r="I17" s="82" t="s">
@@ -37045,7 +37147,7 @@
       <c r="D21" s="88">
         <v>44599</v>
       </c>
-      <c r="E21" s="169" t="s">
+      <c r="E21" s="111" t="s">
         <v>255</v>
       </c>
       <c r="F21" s="77" t="s">
@@ -37054,7 +37156,7 @@
       <c r="G21" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="168" t="s">
+      <c r="H21" s="110" t="s">
         <v>97</v>
       </c>
       <c r="I21" s="82" t="s">
@@ -37096,7 +37198,7 @@
       <c r="G22" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="168" t="s">
+      <c r="H22" s="110" t="s">
         <v>97</v>
       </c>
       <c r="I22" s="82" t="s">
@@ -37140,7 +37242,7 @@
       <c r="G23" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="168" t="s">
+      <c r="H23" s="110" t="s">
         <v>97</v>
       </c>
       <c r="I23" s="82" t="s">
@@ -37182,7 +37284,7 @@
       <c r="G24" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="168" t="s">
+      <c r="H24" s="110" t="s">
         <v>97</v>
       </c>
       <c r="I24" s="82" t="s">
@@ -37224,7 +37326,7 @@
       <c r="G25" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="168" t="s">
+      <c r="H25" s="110" t="s">
         <v>97</v>
       </c>
       <c r="I25" s="82" t="s">
@@ -37427,7 +37529,7 @@
       <c r="D30" s="88">
         <v>44628</v>
       </c>
-      <c r="E30" s="170" t="s">
+      <c r="E30" s="112" t="s">
         <v>299</v>
       </c>
       <c r="F30" s="77" t="s">
@@ -38533,7 +38635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z983"/>
   <sheetViews>
@@ -38730,17 +38832,17 @@
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="160" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="145"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="153"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -38760,15 +38862,15 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="152"/>
-      <c r="C8" s="145"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="145"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="153"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -38844,15 +38946,15 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="155"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
+      <c r="B11" s="161"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="162"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -40667,7 +40769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AB925"/>
   <sheetViews>
@@ -40875,17 +40977,17 @@
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="153"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -40907,15 +41009,15 @@
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="152"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="145"/>
-      <c r="K8" s="145"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="153"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -40997,15 +41099,15 @@
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="156"/>
+      <c r="C11" s="161"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="162"/>
+      <c r="K11" s="162"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -41283,7 +41385,7 @@
       <c r="D18" s="76">
         <v>44586</v>
       </c>
-      <c r="E18" s="167" t="s">
+      <c r="E18" s="109" t="s">
         <v>234</v>
       </c>
       <c r="F18" s="73" t="s">
@@ -41329,7 +41431,7 @@
       <c r="D19" s="76">
         <v>44592</v>
       </c>
-      <c r="E19" s="172" t="s">
+      <c r="E19" s="114" t="s">
         <v>240</v>
       </c>
       <c r="F19" s="73" t="s">
@@ -41375,7 +41477,7 @@
       <c r="D20" s="76">
         <v>44593</v>
       </c>
-      <c r="E20" s="173" t="s">
+      <c r="E20" s="115" t="s">
         <v>247</v>
       </c>
       <c r="F20" s="73" t="s">
@@ -41559,7 +41661,7 @@
       <c r="D24" s="76">
         <v>44614</v>
       </c>
-      <c r="E24" s="171" t="s">
+      <c r="E24" s="113" t="s">
         <v>267</v>
       </c>
       <c r="F24" s="73" t="s">
@@ -41614,7 +41716,7 @@
       <c r="G25" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="174" t="s">
+      <c r="H25" s="116" t="s">
         <v>97</v>
       </c>
       <c r="I25" s="82" t="s">
@@ -41660,7 +41762,7 @@
       <c r="G26" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="174" t="s">
+      <c r="H26" s="116" t="s">
         <v>97</v>
       </c>
       <c r="I26" s="82" t="s">
@@ -41706,7 +41808,7 @@
       <c r="G27" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="174" t="s">
+      <c r="H27" s="116" t="s">
         <v>97</v>
       </c>
       <c r="I27" s="82" t="s">
@@ -41752,7 +41854,7 @@
       <c r="G28" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="174" t="s">
+      <c r="H28" s="116" t="s">
         <v>97</v>
       </c>
       <c r="I28" s="82" t="s">
@@ -49547,7 +49649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AB986"/>
   <sheetViews>
@@ -49753,17 +49855,17 @@
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="153"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
@@ -49785,15 +49887,15 @@
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
-      <c r="C8" s="152"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="145"/>
-      <c r="K8" s="145"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="153"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
@@ -49875,15 +49977,15 @@
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="156"/>
+      <c r="C11" s="161"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="162"/>
+      <c r="K11" s="162"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
@@ -51547,7 +51649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="G5:J1000"/>
   <sheetViews>
@@ -51566,17 +51668,17 @@
     <row r="5" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G6" s="1"/>
-      <c r="H6" s="131" t="s">
+      <c r="H6" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
     </row>
     <row r="7" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G7" s="1"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="135"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
     </row>
     <row r="8" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G8" s="1"/>
@@ -51592,11 +51694,11 @@
     </row>
     <row r="10" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G10" s="1"/>
-      <c r="H10" s="157">
+      <c r="H10" s="165">
         <v>43580</v>
       </c>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
     </row>
     <row r="12" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G12" s="1"/>
